--- a/CETResults.xlsx
+++ b/CETResults.xlsx
@@ -15,7 +15,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="298">
+  <si>
+    <t xml:space="preserve">"1. Condition of LG issuing/ Aval/ Renewal is align with Credit Facilities Report (CFR) with maker and checker control
+2. Daily checking control has been performed properly between 1-Plateform Report named Product Outstanding by Bill/ LG type report (TFG032P) under Guarantee function and client notification/request form, Approval form, copy of letter of LG have the same information such as customer name, LG no., amount, and issue date.
+3. Second checking has been performed by reconciliation between 1-Plateform Report named Product Outstanding by Bill/ LG type report (TFG032P) under Guarantee function and Ondemend report; SAP GL-sort by branch (GL No.: 70520020) on next working day"
+</t>
+  </si>
+  <si>
+    <t>1. LG issuing/ Aval/ Renewal Fees are align with Credit Facilities Report (CFR) and invoice with maker and checker control
+2. Daily checking control has been performed properly between 1-Plateform Report named Transaction Payment Fee (TFG212WF2) under Guarantee function and fee of LG has the same information
+3. Second checking has been performed by reconciliation between 1-Plateform Report named Transaction Payment Fee (TFG212WF2) under Guarantee function and Ondemend report; SAP GL- Comm on LGF (GL No.:43500060) on next working day</t>
+  </si>
+  <si>
+    <t>1. LG cancellation is align with cancellation form and customer purpose.
+2. LG cancellation between original document (Customer)  and copy (CIMBT) has been sign-off by authorized staff.
+3. LG no., customer name and amount of original document, copy and request form are the same.
+4. Reconciliation has been performed proberly between 1-Plateform Report named Transaction  Activity (TFG212WF1)Ondemend report; SAP GL (GL No.:70520020) on next working day</t>
+  </si>
+  <si>
+    <t>1. Maker and checker control has been in-placed
+2. Sampling check on the detail of loan disbursement/ drawdown is correct
+Loan Check: Offerring Sheet VS CFR and supporting documents (ใบแจ้งเรื่องการจัดทำนิติกรรม และ หนังสือขอเบิกใช้เงินกู้ และ หลักฐานการรับเงินกู้) VS LN3342P (End of Day Transaction Balancing Report)
+PN Check: Check: Offerring Sheet VS supporting documents (ตั๋วสัญญาใช้เงิน และ สัญญาขาย/ขายลดตั๋วเงิน การ์ดรายตัวลูกหนี้),Credit Note (หลักฐานการจ่ายเงินให้ลูกค้า) VS LN3102P (Summary of new account created report)</t>
+  </si>
+  <si>
+    <t>1. Interest suspension of revenue recognition is complied with BOT regulation; under condition that customer who had overdue payment aging more than 3 months)
+2. For stop accue interest manually base on Finance Reporting Department instruction has maker and checker control in-placed.</t>
+  </si>
+  <si>
+    <t>ตรวจสอบรายงาน Total PDF, Total Data จากบริษัทภายนอกว่าครบถ้วน ถูกต้องกับข้อมูลที่ยืนยันการนำส่งทางไปรษณีย์
+Sampling check the correctness of debtors details of Data Daily (Managed File Transfer) against Data PDF (Guarantors details sent to Outsources Company)</t>
+  </si>
+  <si>
+    <t>1. Maker and checker control has been in-placed
+2. PorPorNgor 05-9 report has been registered on daily basis when the transaction falled under submission criteria.
+3. End-day reconciliation has been performed properly daily transactions with AMLO system (AMRO eForm) to ensure all amount that need to be submitted to PorPorNgor (Cover on BAHTNET Only) has no different on customer name, transaction amount and transaction date. Authorized signature is required to be verifed (Lotus Note) (Daily payment report under BAHTNET Payment Report, Debit Advice Document, and eForm)
+4. Sampling check on the detail of cashiers' cheque issuing is correct</t>
+  </si>
+  <si>
+    <t>1. The instruction has been requested by authorized parties (Waive: CT call, (Phayathai)
+Retention and Adjust: Instruction from Credit Contract team (Retail))
+2. Maker and checker control has been in-placed
+3. Daily financial transactions adjutstment/ waive has been posted correctly</t>
+  </si>
+  <si>
+    <t>1. ใช้ข้อมูลทะเบียนงานประจำวันที่แจ้ง Maker ดำเนินการ ระบุหัวข้อ เช่น ตั้งวงเงิน, ยกเลิกวงเงิน, ปลอดหลักประกัน เป็นต้น 
+2. สุ่มตรวจสอบการบันทึกวงเงิน/ หลักประกันของลูกค้าในระบบงานตามใบแจ้งนิติกรรมกับ CFR ให้ถูกต้องครบถ้วน 
+'- Sampling check the correctness of details in credit/ collateral setting up form compared against details in CFR, ODS ,CDS and 1P</t>
+  </si>
+  <si>
+    <t>1. Credit limit/collateral setup base on the criteria below is correct
+    - Credit limit setup  
+    - Interest rate setup
+    - Collateral setup
+    - Review Date of credit limit and/or appraisal value
+The 1-Plateform is comparing with  supporting document such as credit facilities report (CFR), credit approval and supporting document in ODS and CDS. (Under criteria creation, cancellation)
+2. The control sheet has maker and checker control.</t>
+  </si>
+  <si>
+    <t>สุ่มตรวจสอบใบคำขอ-ฝาก หรือ ใบคำขอ- คืนเอกสารสำคัญกับรายงานการรับฝาก/ รับคืนประจำวัน
+- Sampling registered log in-out for physical documents to ensure this is in place
+- Sampling to ensure follow up documents process is performed. Request follow up in-out documents form and review all request documents are properly return. 
+If found over aging request documents, recheck the existing and request reason.</t>
+  </si>
+  <si>
+    <t>1. All documents that has been sent to strong room are correct and in the customer document file (Checking between daily report and document file of each customer)
+2. Monthly follow-up memorandum and report (รายงานเอกสารสำคัญที่ครบกำหนดคืน) on overdue of borrowing documents has been sent to borrower and request to acknowledgement:
+-Report due as of 31-Dec-17 has been sent to borrower on 4-Jan-18 with acknowledgement sign-off 
+-Report due as of 31-Jan-18 has been sent to borrower on 1-Feb-18 with acknowledgement sign-off 
+-Report due as of 28-Feb-18 has been sent to borrower on 5-Mar-18 with acknowledgement sign-off</t>
+  </si>
+  <si>
+    <t>สุ่มตรวจสอบการสืบค้นข้อมูลเครดิตตามรายงาน Audit Report
+Sampling the reconciliation process :
+1. Reconcile searching transactions from Audit Report against Request transactions through NCB workflow &amp; Summary Report
+2. Reconcile searching transactions against total Consent received</t>
+  </si>
+  <si>
+    <t>สุ่มตรวจสอบใบสรุปมติอนุมัติ กับมติอนุมัติ จากมติฯ และสำเนาสัญญาของลูกค้า/ ข้อมูลการกู้เงินในระบบ 1P
+Sampling check to ensure the summary of CFR condition is performed by maker and checker
+Source
+1. Board Resolution
+2. Copy of client contract or information in the system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Base on the sampling date there are some Credit Facilities Reports (FCR) are requires the translation from English to Thai; the result is 80-85% acceptable for internal used only subject to language barrier. However, main condition has been staged in the translation version.
+2. Maker and checker control has been in place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. สุ่มรายชื่อจากรายงานทะเบียนการแจ้งตั้งวงเงินรายเดือน
+2. ตรวจสอบการบันทึกเงื่อนไขติดตามหลังการเบิกใช้ในระบบ LCMS กับ มติอนุมัติ CFR ครบถ้วนถูกต้อง
+3. สุ่มตรวจรายชื่อจากรายงานเงื่อนไขในระบบ LCMS ที่ completed ในทุกเดือน
+4. ตรวจสอบเอกสารประกอบที่RM submit มาถูกต้องกับเงื่อนไขระบุในระบบ LCMS
+'- Sampling details of CFR and check against LCMS data to ensure all loan covenants are input into LCMS correctly. 
+- Sampling the completed loan covenant report and check that RM submit the correct document when request to complete loan covenant in LCMS.    
+- Tracking movement if escalate to management. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Credit Facilities Report (CFR) condition and LCMS has the same loan covenants detail.
+Remark: as COD has the maker role and RM has the checker role then the testing procedure is cover only maker role. COD has put the best effort to input all condition from CFR into LCMS.
+</t>
+  </si>
+  <si>
+    <t>1. Sampling check daily check sheet on FA/SA duties is in place and performed.
+2. Sampling check the calculation sheet to ensure being checked by another team (Loan Prepayment) before sending to Lenders/Borrowers.
+3. Sampling the external emails are sending to the correct persons/customers. All attched template are protected with password before sending. Password is sent in seperate email.</t>
+  </si>
+  <si>
+    <t>1. Calculation sheet has been calculation check by another team under COD 
+2. All email that has been sent by authorized person to client has been encypted with password and limited staff to know the password, different client has unique passwork
+3. There has the sheet for group of contactlist which is up to date.
+4. All sending email is proactive status
+5. There has control (limited access) and tracking on daily activitiy sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สุ่มตรวจสอบลูกหนี้ที่มีการปิดบัญชีจากทะเบียนคุมค่าเบี้ยประกันภัยลูกหนี้รายตัว กับชุดงานนัดไถ่ถอนหลักประกันในระบบ CDS
+Sampling check customer who closed account from the outstanding collection of insurance fee report against the collateral redemption from CDS </t>
+  </si>
+  <si>
+    <t>- Sampling to ensure maker and checker perform checking relevant documents i.e. invoices before loan drawndown.
+- If document is not complete, check whether DA approve to process and recording condition in LCMS or not, for example : Notice of drawdown + Receipt + all supporting documents i.e. appraisal report, invoice have been checked to complete by maker &amp; checker from CFR approved from time to time.</t>
+  </si>
+  <si>
+    <t>1. สุ่มรายชื่อจากรายงานทะเบียนการแจ้งตั้งวงเงินรายเดือน
+2. ตรวจสอบนิติกรรมสัญญาสินเชื่อ และ ใบแจ้งเรื่องการจัดทำนิติกรรม- ส่วนควบคุมวงเงินสินเชื่อ มีการบันทึกถูกต้องครบถ้วน ตามมติอนุมัติ CFR และมีการส่งให้หน่วยงานที่เกี่ยวข้อง (RM, นิติกรรมสัญญา, Data entry, product)
+1. Sampling customer name from monthly record of credit limit set up
+2. Review loan agreement whether record data completely and correctly per CFR and send to relevant parties or not.</t>
+  </si>
   <si>
     <t>- Review return/ reject PIN: has evidence and email to ensure the destroy action has been taken in same day.  
 - Review Log record to ensure PIN is completely sent to client: have log book and stock record and stock.
@@ -59,6 +188,10 @@
 2) Check as follow:
     2.1) Reconcile report 1.1) and report 1.2), there should have no duplicate transaction be done .
     2.2) Select 6 transactions in GPS 910 report which showed (Processed Manual/Cancelled Payment Orders) and check if those transaction have been done under ISP properly.</t>
+  </si>
+  <si>
+    <t>1.  Check and reconcile the selected 6 days reports (GPS910 and Daily Inward Transaction report), no duplicate transaction showed in both reports
+2. Check the selected 6 transactions from GPS910 report  showing status as Processed Manual/Cancelled Payment Order, those transactions have been done in ISP correctly.</t>
   </si>
   <si>
     <t>'1. Inquiry  2 reports as follows:
@@ -92,11 +225,6 @@
     2.2) If there are "NAK" status, check if those SWIFT messages with NAK status have been properly repaired and resend with ACK status or were sent out via SWIFT alliance.</t>
   </si>
   <si>
-    <t>'Check the reports of end day outgoing SWIFT "SWIFT Log File" (6 days), found that:
-   1) 4 out of 6 days,all transactions shown "ACK" status.
-   2) 2 out of 6 days, there are 2 transactions shown "NAK" status and have been repaired and resend in ISP with ACK status.</t>
-  </si>
-  <si>
     <t xml:space="preserve">'1. Inquiry "Daily Transaction" Report 
 2. Select 6 transactions of "IMTR", "Issue" Event from the report.
 3. Check as follow:
@@ -107,12 +235,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Checked samplings document as detail below:  
+    <t>Checked samplings document as detail below:  
 1) Evidence of OFAC/Watchlist/ customer limit  checking in place. Pass
 2) Customer signatue have been verified . Pass
 3) SWIFT MT103/MT202: amount, value date correctly. Pass
-4) FX applied vs Treasury Ticket in place.Pass
-</t>
+4)  FX applied vs Treasury Ticket in place.Pass</t>
   </si>
   <si>
     <t xml:space="preserve">'1. Obtain 6 days of below reports : 
@@ -126,8 +253,9 @@
 </t>
   </si>
   <si>
-    <t>1) Checked and reconcile  as  total transaction items and comm amount of Report on Export LC (A/C no 4408-0200)  equal to total transaction items and comm amount of Report Due from Branch account ISP plus total transaction items and comm amount of Report 1P response transactions report correctly.
-2) Every transactions under Report Due from branchaccounts ISP which paid by cash  having evidence of cash deposit slip signed by branch staff properly.</t>
+    <t xml:space="preserve">1) Checked and reconcile  as  total transaction items and comm amount of Report on Export LC (A/C no 4408-0200)  equal to total transaction items and comm amount of Report Due from Branch account ISP plus total transaction items and comm amount of Report 1P response transactions report correctly.
+2) Every transactions under Report Due from branchaccounts ISP which paid by cash  having evidence of cash deposit slip signed by branch staff properly.
+</t>
   </si>
   <si>
     <t>'1. Inquiry  below report :
@@ -149,11 +277,10 @@
    3.3)  The evidence of approval in case transaction hit OFAC/Watchtlist. </t>
   </si>
   <si>
-    <t xml:space="preserve">Checked samplings document as detail below:  
+    <t>Checked samplings document as detail below:  
 1)  Data in Checklist sheet have been completely recroded  such as payment terrm, discrepancy (if any), Duty Stamp amount etc.   Pass
 2) The evidence of watchlist/OFAC/ Vessel checking was in place. Pass
-3) The evidnec of approval for OFAC Liberiavessel was in place.. Pass
-</t>
+3) The evidnec of approval for OFAC Liberiavessel was in place.. Pass</t>
   </si>
   <si>
     <t>'1.Inquiry Daily Transaction Export Bill report"
@@ -172,6 +299,60 @@
 4) Customer signatue have been verified . Pass</t>
   </si>
   <si>
+    <t>'1) User ID Management SOP Document.
+2) User ID Confirmation(Confirmed Email from Dept. Head; User List)
+3) 3.1 Confirmed Email from HR.
+Resign Case; 
+3.2 Capture Screen of Change Request(Resign)
+3.3 Capture Screen of Search User on AD system (Not found)
+Transfer Case; 
+4) Email; Result of User ID Review (Monthly: HR List vs. AD system)</t>
+  </si>
+  <si>
+    <t>"1) 1.1 VA DOI, 1.2 Hardening DOI, 1.3 IT Security Monitoring DOI, 1.4 Security Incident Response Procedure DOI, 1.5 Anti-Phishing SOP
+2) IT Security Blue Print and Roadmap 2016-2018 (Presentation)
+3) 3.1 Penetration Test Plan and Result/Report.
+3.2 Vulnerability Assessment Plan and Result/Report (Period and New/Enhance)
+4) Email; received news/alert to relevant team.
+5) Email; coordinated with Group.
+6) 6.1 Hardening Result (New System), 6.2 Health Check Report. (sampling each period)
+7) Email; IT Security Awareness / Tips / Online Training. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) DOI; Data Center Work Rules and Regulations document.
+2) DC, DR layout diagram.
+3) Spec of Access Control and log sheet review.
+4) Sample screen capture of CCTV recording and folder of data recording.
+5) Email/MOM of project that DC staff has trained project team
+6) Log sheet of physical access of DC and DR.
+7) Authorized person and access right of restricted areas review report."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) Change Management Process DOI
+2) Communication email on Change process awareness and CAB MOM on change PVT review
+3) Escalate incidents and side effect caused from change implementation to Management (TEDi) and discuss with responsible team for improvement."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) Approved Budget for obsoleted or end of support system.
+2) M/A Contract/Agreement.
+3) Obsoleted IT Component / System Y2016 (Presentation)
+4) Latest application portfolio version keep at EA
+5) Provide upgrade plan and progress of obsoleted or end of support system."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) Education roadmap for key skills are in placed and being tracked on regular basis.
+2)+5) Bubdy list (Tentative target Q1/2017)
+3) Hiring outsouce for new project. (if any)
+4) Knowledge Repository (KTree) is in place and being tracked on regular basis to ensure its quality.
+6) Hand over checklist with signoff 
+7  New AMD organization chart (Tentative target Q2/2017)
+8)+9)+10)+11) Staff Succession Plan of EA."
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">'1. Select 6 days of last quarter
 2. Obtain daily report for "SWIFT Message File - Message Summary Report" which is downloaded from SWIFT. 
 3. Review that all messages are distributed and there are signautre on messages received by relevant section/ dept. completely.
@@ -248,6 +429,149 @@
     <t>Credit Operation Department</t>
   </si>
   <si>
+    <t>R-TH-2017-273-V4-R3334-C3542-CET3423</t>
+  </si>
+  <si>
+    <t>ตรวจสอบการออกหนังสือค้ำประกัน, อาวัลรับรองตั๋วเงินโดย Report  TFG 032 P
+Sampling check daily reconcile sheet "Product Outstanding by Bill/ LG type" (TFG032P) from 1P by comparing with SAP GL (sort by branch).</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>01 Jun 2018</t>
+  </si>
+  <si>
+    <t>30 Mar 2018</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3342-C3544-CET3425</t>
+  </si>
+  <si>
+    <t>ตรวจสอบการจัดเก็บค่าธรรมเนียม โดย Report  TFG 212 WF2  
+Sampling check daily reconcile report "Transaction Payment Fee (TFG212WF2) from 1P by comparing with SAP GL a.c no. 43500060 Comm on LGF.</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3343-C3545-CET3426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตรวจสอบการยกเลิกหนังสือค้ำประกัน, อาวัลรับรองตั๋วเงินโดย Report  TFG 212 WF1  
+Sampling check daily reconcile report "Transaction  Activity (TFG212WF1) from 1P by comparing with SAP GL. </t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3344-C3546-CET3427</t>
+  </si>
+  <si>
+    <t>ตรวจสอบรายการเบิกเงินกู้จาก Report LN3342 (End of Day)  และ Report LN3102 กับเอกสารการเบิกกู้
+Sampling check reconciliation process of Report LN3342 (Bahtnet) against Report LN3102.</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3345-C3547-CET3428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตรวจสอบและยืนยันความถูกต้องทุกรายการตามการ์ดลูกหนี้รายตัวและบนระบบงาน 
+Sampling check loan repayment paid by customers comparing with Credit Facilities Report (CFR) condition and loan agreement
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Maker and checker control has been in-placed
+2. The detail of customer card (Manual Record for internal use), Credit Facilities Report (CFR) condition and 1-Platform (1P) (function: ETP-Touch-Point) </t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3346-C3548-CET3429</t>
+  </si>
+  <si>
+    <t>ตรวจสอบรายการจาก REPORT stop accrued ว่าดำเนินการถูกต้อง และครบถ้วน เป็นไปตามหลักเกณฑ์ที่กำหนด
+Loan Product :
+Sampling check the list of stop accured received from Finance Team against Interest suspense today (LN3345P) report on demand.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3427-C3628-CET3509</t>
+  </si>
+  <si>
+    <t>'ตรวจสอบรายการจาก REPORT stop accrued ว่าดำเนินการถูกต้อง และครบถ้วน เป็นไปตามหลักเกณฑ์ที่กำหนด
+Loan Product :
+Sampling check the list of stop accured received from Finance Team against Interest suspense today (LN3345P) report on demand.</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3432-C3636-CET3517</t>
+  </si>
+  <si>
+    <t>1. Maker and checker control has been in-placed
+2. The daily data of debtors detail (Managed File Transfer) and PDF data (Guarantors details sent to Outsources Company)</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3433-C3639-CET3520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กระทบยอด End of day ในระบบงานกับทะเบียนประจำวัน
+Sampling check end day reconcile 1P report against registered record
+</t>
+  </si>
+  <si>
+    <t>1. Maker and checker control has been in-placed
+2. End-day reconciliation at lump sum level has been performed properly (1-Plateform report and registered record)
+3. Sampling check on the detail of cashiers' cheque issuing is correct</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3434-C3640-CET3521</t>
+  </si>
+  <si>
+    <t>กระยอดรายงานประจำวันกับรายงานจากระบบ ปปง. 
+Sampling check end day reconcile daily transactions with AMLO system to ensure all amount that need to be submitted to PorPorNgor are completed.</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3436-C3642-CET3523</t>
+  </si>
+  <si>
+    <t>Sampling check the instruction documents against the maintenance reports  to ensure transactions adjustments /waive posted correctly.</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3444-C3650-CET3531</t>
+  </si>
+  <si>
+    <t>Sampling check application to ensure loan application were scanned in BT system.</t>
+  </si>
+  <si>
+    <t>1.The total of document is requested to filing, vendor receiving sign-off, and vendor report sent to CIMBT are the same
+Remark: Credit Card process has been stopped since Jul-17.</t>
+  </si>
+  <si>
+    <t>R-TH-2017-273-V4-R3445-C3651-CET3532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling check checklist to ensure daily control checklist was reviewed and signed by supervisor. </t>
+  </si>
+  <si>
+    <t>1. Reject report of Loan account creation in the RRCS system has been reviewed and check by supervisor.
+2. Checklist has been reviewed and signed by supervisor.
+Remark: Credit Card process has been stopped since Jul-17.</t>
+  </si>
+  <si>
     <t>R-TH-2017-273-V4-R3446-C3652-CET3533</t>
   </si>
   <si>
@@ -258,16 +582,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Half-Yearly</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t xml:space="preserve">เป็นไปตามเกณฑ์
@@ -323,6 +638,83 @@
   </si>
   <si>
     <t xml:space="preserve">- Checking erroneous limit set up via KRI </t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3450-C3656-CET3537</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3451-C3657-CET3538</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3452-C3658-CET3539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The checking control process has been performed properly. 
+2. Name of customer has been reconciled between COD report and NCB audit report.
+3. Consent letter has been submitted to NCB within 14 days.
+</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3453-C3659-CET3540</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3454-C3660-CET3541</t>
+  </si>
+  <si>
+    <t>31 Mar 2018</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3455-C3661-CET3542</t>
+  </si>
+  <si>
+    <t>Ad hoc or where frequency cannot be determined, but control/event occurs less than 200 times</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3456-C3662-CET3543</t>
+  </si>
+  <si>
+    <t>Sampling check total number of cases in-out from control system ระบบทะเบียน (Note App) with the sent mail from CDS to ensure all cases are properly proceed.</t>
+  </si>
+  <si>
+    <t>1. Total assignment which has been registered into control system on Lotus Note (ระบบติดตาม) is matched with CDS- Lotus Note</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3457-C3663-CET3544</t>
+  </si>
+  <si>
+    <t>สุ่มตรวจสอบความถูกต้องครบถ้วนขอการจัดทำประกันภัยตามทะเบียนแจ้งจัดทำประกันภัยกับรายงานแจ้งผลการจัดทำประกันภัยของบริษัท ศรีอยุธยาฯ 
+Sampling check whether fire insurance have been received and renewed on a timely manner or not.</t>
+  </si>
+  <si>
+    <t>1. The issueing file insurance request detail of bank report is matched with vender (Sriyuth) report.
+2. The report is matched if not there has supporting reason.</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3458-C3664-CET3545</t>
+  </si>
+  <si>
+    <t>1. Maker and cheker control has been in place.
+2. Scope of checking detail is covered and matched.</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3491-C3696-CET3576</t>
+  </si>
+  <si>
+    <t>1. Check the completeness of document for drawdown is success
+2. There is no different between Control Sheet and 1P data for drawdown at lumpsum level</t>
+  </si>
+  <si>
+    <t>R-TH-2017-274-V4-R3492-C3698-CET3578</t>
+  </si>
+  <si>
+    <t>1.  Loan agreement record data is completed and correct per CFR and send to relevant parties.
+2. Maker and Cheker control is be in place.</t>
   </si>
   <si>
     <t>Domestic Banking Department</t>
@@ -337,18 +729,6 @@
 - Review authorization limit on annually basis.</t>
   </si>
   <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>There is no different between instructioln and Control sheet.</t>
   </si>
   <si>
@@ -385,9 +765,6 @@
   </si>
   <si>
     <t>R-TH-2017-275-V7-R28739-C28964-CET28761</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>Due to the control frequency is monthly basis, so the testing frequency should be changed to half year testing and sampling size should be change to 2.</t>
@@ -502,11 +879,10 @@
     <t>R-TH-2017-278-V7-R28785-C29028-CET28825</t>
   </si>
   <si>
-    <t>1.  Check and reconcile, no duplicate transaction showed in both reports
-2.  The selected 6 transactions have been done in ISP correctly.</t>
-  </si>
-  <si>
     <t>01 Apr 2018</t>
+  </si>
+  <si>
+    <t>23 Apr 2018</t>
   </si>
   <si>
     <t>R-TH-2017-278-V7-R28786-C29031-CET28828</t>
@@ -517,18 +893,16 @@
 3. Check watchlist have been done properly</t>
   </si>
   <si>
-    <t>Check the evidence of watchlist checking were in place correctly.</t>
-  </si>
-  <si>
-    <t>25 Jan 2018</t>
+    <t>Check 6 transactions of each Inward and Outward remittance, found that the evidence of watchlist checking of those transactions were in place correctly.</t>
   </si>
   <si>
     <t>R-TH-2017-278-V7-R3435-C3641-CET3522</t>
   </si>
   <si>
     <t>'Check  6 transactions as follow: 
-1) The evidence of watchlist/Customer Limit checking (if settled by TR) were inplace. COMPLETE
-2) SWIFT MT202 : amount, Beneficiary correctly. = COMPLETE
+1) The evidence of watchlist/Customer Limit checking
+ (if settled by TR) were inplace. COMPLETE
+2) SWIFT MT202 : amount, Beneficiary correctly.= COMPLETE
 3) FX applied vs Treasury Ticket was inplace.= COMPLETE</t>
   </si>
   <si>
@@ -536,6 +910,10 @@
   </si>
   <si>
     <t>R-TH-2017-278-V7-R3438-C3644-CET3525</t>
+  </si>
+  <si>
+    <t>'Check the reports of end day outgoing SWIFT "SWIFT Log File" (6 days), found that:
+   1) Outgoing SWIFT of 6 day All transactions shown "ACK" status (no need to check further step)</t>
   </si>
   <si>
     <t>R-TH-2017-278-V7-R3439-C3645-CET3526</t>
@@ -557,6 +935,170 @@
   </si>
   <si>
     <t>R-TH-2017-278-V7-R3443-C3649-CET3530</t>
+  </si>
+  <si>
+    <t>Technology Division</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4183-C4453-CET4326</t>
+  </si>
+  <si>
+    <t>'1) HPID DOI Document.
+2) HPID Confirmation(Confirmed Email from Dept. Head; HPID List, User List)
+3) Activities Log from CyberArk. (Monthly Report)
+4) Log Book of HPID Password Request (Manual) (At ITGR and ITID)
+5) Review HPID Usage Log Report / Email.</t>
+  </si>
+  <si>
+    <t>Have documents completed in Testing Period</t>
+  </si>
+  <si>
+    <t>31 Jul 2017</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4210-C4479-CET4359</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4215-C4483-CET4364</t>
+  </si>
+  <si>
+    <t>'1) Patch Management SOP Document.
+2) Email; Inform patches advisory from Group and to IT Infra.
+3) Email; Assessment Result.
+4) MOM/Email; Patch Management Follow up.
+5)+6) Patch update year plan, Monthly patch implementation/ update report</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4217-C4484-CET4365</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4218-C4486-CET4367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) IT Outsourcing Policy Document.
+2) IT Security Requirement Checklist for IT Outsourcing. (In progress)
+3) Monthly Service Report.
+4) External Service Provider Evaluation Result."
+</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4220-C4487-CET4368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) Gap of IT Policy Report.
+2) Tracking Gap/Action Plan for ITSPC (Presentation)
+3) Exemption Form/Sign Off (if any)"
+</t>
+  </si>
+  <si>
+    <t>Quarterly/Every other month</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4221-C4489-CET4370</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Not have support document of item 5)</t>
+  </si>
+  <si>
+    <t>01 Aug 2017</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4226-C4493-CET4374</t>
+  </si>
+  <si>
+    <t>"DC and DR
+1)+2)+3) Data Center Electrical Diagram. (By K.Kowit)
+4) Provide sampling of alerted email or SMS.
+5) Provide sampling of Maintenance Report by Vendor.
+6)  Routine to monitor and check DC and DR facilities report
+"</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4228-C4496-CET4377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) List of all certificates monitored by IT Security
+2) Sample email alert about certificate expiration
+3) Confirmation of new certificates date."
+</t>
+  </si>
+  <si>
+    <t>Not yet receive document support from team.</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4230-C4498-CET4379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) Incident Management and Escalation Process DOI and SMS/Email notification INC SEV1-3.
+2) Email arwaness announcement."
+</t>
+  </si>
+  <si>
+    <t>Not receive support document of item 2)</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4284-C4547-CET4428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) Problem Management Process DOI.
+2) Email announcement to all patry.
+3) MOM of TEDi and problem tracking log.
+4) Implementation plan of Known Error Database."
+</t>
+  </si>
+  <si>
+    <t>Not receive support document of item 1), 2) and 3)</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4290-C4549-CET4430</t>
+  </si>
+  <si>
+    <t>Not receive support document of item 3)</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4293-C4552-CET4433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) Altiris report
+2) Inventory report and compare with previous month."
+</t>
+  </si>
+  <si>
+    <t>Document of Item 2) is mismatch.</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4296-C4553-CET4434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1)+2) List of Clicent that allowed USB and review
+3) Evidance of USB and Laptop HDD encrypted.
+4) Provide IT Security Awareness Material / Email.
+"
+</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4299-C4554-CET4435</t>
+  </si>
+  <si>
+    <t>Not receive document of item 2)</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4301-C4558-CET4440</t>
+  </si>
+  <si>
+    <t>Not receive document of item 4)</t>
+  </si>
+  <si>
+    <t>R-TH-2017-817-V3-R4306-C4561-CET4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1) Sign off requirement for Test Martix and Test Case.
+2) Sampling Change Request which got approval from CAB.
+3) DOI Document and Sampling CRQ for parameter change was complete / Closed."
+</t>
   </si>
   <si>
     <t>Capital Financial Markets &amp; Payments Operation Department</t>
@@ -711,13 +1253,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -785,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -820,11 +1362,15 @@
       <alignment vertical="top" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,42 +1763,42 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1260,39 +1806,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="8" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1300,39 +1846,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1340,39 +1886,39 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="8" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1380,39 +1926,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="8" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1420,39 +1966,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="8" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1460,39 +2006,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="8" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1500,39 +2046,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="8" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1540,39 +2086,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="N9" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1580,39 +2126,39 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="8" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1620,39 +2166,39 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1660,39 +2206,39 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1700,39 +2246,39 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1740,39 +2286,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="8" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1780,39 +2326,39 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="8" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1820,39 +2366,39 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="8" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1860,39 +2406,39 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="8" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1900,39 +2446,39 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="8" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1940,39 +2486,39 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1980,39 +2526,39 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="8" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -2020,39 +2566,39 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="8" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -2060,39 +2606,39 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -2100,39 +2646,39 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="8" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -2140,39 +2686,39 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="8" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2180,39 +2726,39 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="8" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -2220,39 +2766,39 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="8" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2260,39 +2806,39 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="8" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2300,39 +2846,39 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="8" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2340,39 +2886,39 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="8" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2380,39 +2926,39 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2420,39 +2966,39 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -2460,39 +3006,39 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2500,39 +3046,39 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="8" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2540,39 +3086,39 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="8" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2580,39 +3126,39 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="8" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2620,39 +3166,39 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="8" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2660,39 +3206,39 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="8" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2700,39 +3246,39 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="8" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2740,39 +3286,39 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="8" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2780,39 +3326,39 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="8" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2820,39 +3366,39 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="8" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2860,39 +3406,39 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="8" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L42" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M42" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="M42" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="N42" s="6" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2900,39 +3446,39 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2940,39 +3486,39 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="8" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2980,100 +3526,1792 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="8" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="G45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45" s="6" t="s">
+      <c r="B70" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="L45" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="11"/>
-    </row>
+      <c r="B73" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B88" s="10"/>
+    </row>
+    <row r="89" spans="1:14" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="10"/>
+    </row>
+    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" s="10"/>
+    </row>
+    <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="10"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" spans="1:14" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="10"/>
+    </row>
+    <row r="99" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="10"/>
+    </row>
+    <row r="100" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101" spans="2:3" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
+  <mergeCells count="94">
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>

--- a/CETResults.xlsx
+++ b/CETResults.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="297">
   <si>
     <t xml:space="preserve">"1. Condition of LG issuing/ Aval/ Renewal is align with Credit Facilities Report (CFR) with maker and checker control
 2. Daily checking control has been performed properly between 1-Plateform Report named Product Outstanding by Bill/ LG type report (TFG032P) under Guarantee function and client notification/request form, Approval form, copy of letter of LG have the same information such as customer name, LG no., amount, and issue date.
@@ -372,9 +372,9 @@
   </si>
   <si>
     <t>Checked 6 samples for  each quarter from new  counterparty opening in year  2017 such as mutual fund ,  retail and corporate shown  example as in counterparty  form with data link to 1P  system. Date as follow:-
-25, 30 Oct 2017 as retail client.
-27, 29 Nov. 2017 as retail client and mutual fund.
-26, 28 Dec.2017 as retail client.
+23, 24 Jan 2018 as retail client.
+26, 27 Feb 2018 as retail client and mutual fund.
+23, 26 Mar 2018 as retail client.
 Sample are comply.</t>
   </si>
   <si>
@@ -877,9 +877,6 @@
   </si>
   <si>
     <t>R-TH-2017-278-V7-R28785-C29028-CET28825</t>
-  </si>
-  <si>
-    <t>01 Apr 2018</t>
   </si>
   <si>
     <t>23 Apr 2018</t>
@@ -1107,10 +1104,10 @@
     <t>R-TH-2017-820-V2-R3382-C3583-CET3464</t>
   </si>
   <si>
-    <t>Checked all incoming  messages are distributed to  relevant section/ dept with  signautre received.</t>
-  </si>
-  <si>
-    <t>30 Jan 2018</t>
+    <t>Checked all incoming messages are distributed to relevant section/ department with signature received.</t>
+  </si>
+  <si>
+    <t>27 Apr 2018</t>
   </si>
   <si>
     <t>R-TH-2017-820-V2-R3383-C3584-CET3465</t>
@@ -1127,22 +1124,22 @@
   </si>
   <si>
     <t>'Checked 6 samples for  each quarter from FX and  derivative confirmations. Date as follow:-
-3 ,4 Oct. 2017
-6 ,7 Nov. 2017
-18,19 Dec. 2017
+30, 31 Jan 2018
+27, 28 Feb 2018
+29, 30 Mar 2018
 Sample are  comply.</t>
   </si>
   <si>
-    <t>31 Jan 2018</t>
+    <t>30 Apr 2018</t>
   </si>
   <si>
     <t>R-TH-2017-820-V2-R3385-C3586-CET3467</t>
   </si>
   <si>
     <t>Checked 6 samples for  each quarter from Nostro  patment reconcile report. Date as follow:-
-24, 31 Oct. 2017
-21, 27 Nov. 2017
-22, 26 Dec. 2017
+23, 24 Jan 2018
+22, 23 Feb 2018
+27, 28 Mar 2018
 Sample are comply.</t>
   </si>
   <si>
@@ -1163,9 +1160,9 @@
   </si>
   <si>
     <t>Checked 6 samples for  each quarter from daily fixing  rate.  Date as follow:-
-3 ,5 Oct. 2017
-6 ,7 Nov. 2017
-18,19 Dec. 2017
+30, 31 Jan 2018
+27, 28 Feb 2018
+29, 30 Mar 2018
 Sample are  comply</t>
   </si>
   <si>
@@ -1177,13 +1174,13 @@
 **Check MTM the new listing price</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked the price from Thai  BMA against valuation report  were matched  and  maker/checker control had  been performed properly. </t>
+    <t xml:space="preserve">'Checked the price from Thai  BMA against valuation report  were matched  and  maker/checker control had  been performed properly. </t>
   </si>
   <si>
     <t>R-TH-2017-820-V2-R3390-C3591-CET3472</t>
   </si>
   <si>
-    <t>Checked and reconcile total  dividend payment  transactions and total  amount were matched with  pay in pack transaction  report in each channel.  Maker/Checker control and  reconciliation process had  been performed properly</t>
+    <t>'Checked and reconcile total  dividend payment  transactions and total  amount were matched with  pay in pack transaction  report in each channel.  Maker/Checker control and  reconciliation process had  been performed properly</t>
   </si>
   <si>
     <t>R-TH-2017-820-V2-R3391-C3592-CET3473</t>
@@ -1194,7 +1191,7 @@
 3. Check that the maker/checker control had been performed properly or not.</t>
   </si>
   <si>
-    <t>Checked end day reconciliation from settlement report from MUREX against Money Market transactions. Total no. of transactions and total amount have been settled completely and with maker/checker performed properly</t>
+    <t>Checked end day reconciliation from settlement report from MUREX against Money Market transactions. Total no. of transactions and total amount have been settled completely and with maker/checker performed properly.</t>
   </si>
   <si>
     <t>R-TH-2017-820-V2-R3392-C3593-CET3474</t>
@@ -1224,7 +1221,8 @@
 3) Review report by checker is performed completely or not.</t>
   </si>
   <si>
-    <t>Completed with Maker print out report and Checker checked and signed.</t>
+    <t xml:space="preserve">Completed with Maker print out report and Checker checked and signed.
+</t>
   </si>
   <si>
     <t>RCSA Coordinator</t>
@@ -1253,13 +1251,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1743,7 +1741,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3675,10 +3673,10 @@
         <v>30</v>
       </c>
       <c r="M48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N48" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -3691,10 +3689,10 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>71</v>
@@ -3712,13 +3710,13 @@
         <v>75</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N49" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -3731,7 +3729,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>31</v>
@@ -3752,13 +3750,13 @@
         <v>75</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M50" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N50" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -3771,7 +3769,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>32</v>
@@ -3795,10 +3793,10 @@
         <v>33</v>
       </c>
       <c r="M51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N51" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -3811,7 +3809,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>34</v>
@@ -3832,13 +3830,13 @@
         <v>75</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N52" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -3851,7 +3849,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>35</v>
@@ -3875,10 +3873,10 @@
         <v>36</v>
       </c>
       <c r="M53" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N53" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -3891,7 +3889,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
       <c r="E54" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>37</v>
@@ -3915,10 +3913,10 @@
         <v>38</v>
       </c>
       <c r="M54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N54" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3931,7 +3929,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>39</v>
@@ -3952,13 +3950,13 @@
         <v>75</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N55" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3971,7 +3969,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
       <c r="E56" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>40</v>
@@ -3995,10 +3993,10 @@
         <v>41</v>
       </c>
       <c r="M56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -4011,7 +4009,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="E57" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>42</v>
@@ -4035,10 +4033,10 @@
         <v>43</v>
       </c>
       <c r="M57" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N57" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -4046,15 +4044,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
       <c r="E58" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>112</v>
@@ -4072,13 +4070,13 @@
         <v>123</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -4086,12 +4084,12 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="4"/>
       <c r="E59" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>44</v>
@@ -4112,13 +4110,13 @@
         <v>123</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4126,15 +4124,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>112</v>
@@ -4152,13 +4150,13 @@
         <v>123</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -4166,12 +4164,12 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
       <c r="E61" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>45</v>
@@ -4192,13 +4190,13 @@
         <v>123</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M61" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4206,15 +4204,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
       <c r="E62" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>112</v>
@@ -4232,13 +4230,13 @@
         <v>123</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4246,18 +4244,18 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
       <c r="E63" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="G63" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>123</v>
@@ -4272,13 +4270,13 @@
         <v>123</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -4286,12 +4284,12 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
       <c r="E64" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>46</v>
@@ -4306,19 +4304,19 @@
         <v>113</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>123</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -4326,15 +4324,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
       <c r="E65" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>112</v>
@@ -4352,13 +4350,13 @@
         <v>123</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -4366,15 +4364,15 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
       <c r="E66" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>112</v>
@@ -4386,19 +4384,19 @@
         <v>113</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>123</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4406,15 +4404,15 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
       <c r="E67" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>112</v>
@@ -4426,19 +4424,19 @@
         <v>113</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>123</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M67" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -4446,15 +4444,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
       <c r="E68" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>112</v>
@@ -4466,19 +4464,19 @@
         <v>113</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>123</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -4486,12 +4484,12 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="E69" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>47</v>
@@ -4506,19 +4504,19 @@
         <v>113</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>123</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M69" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -4526,15 +4524,15 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
       <c r="E70" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>112</v>
@@ -4546,19 +4544,19 @@
         <v>113</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>123</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M70" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -4566,15 +4564,15 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
       <c r="E71" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>127</v>
@@ -4592,13 +4590,13 @@
         <v>123</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M71" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -4606,12 +4604,12 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="4"/>
       <c r="E72" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>48</v>
@@ -4626,19 +4624,19 @@
         <v>113</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>123</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M72" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -4646,18 +4644,18 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="4"/>
       <c r="E73" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>123</v>
@@ -4666,19 +4664,19 @@
         <v>113</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>123</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M73" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4686,15 +4684,15 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
       <c r="E74" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>112</v>
@@ -4712,13 +4710,13 @@
         <v>123</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M74" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4726,12 +4724,12 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="4"/>
       <c r="E75" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>50</v>
@@ -4752,13 +4750,13 @@
         <v>75</v>
       </c>
       <c r="L75" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N75" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N75" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4766,15 +4764,15 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
       <c r="E76" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>71</v>
@@ -4792,13 +4790,13 @@
         <v>75</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4806,12 +4804,12 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="E77" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>51</v>
@@ -4832,13 +4830,13 @@
         <v>75</v>
       </c>
       <c r="L77" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N77" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4846,12 +4844,12 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="E78" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>52</v>
@@ -4872,13 +4870,13 @@
         <v>75</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4886,15 +4884,15 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>71</v>
@@ -4915,10 +4913,10 @@
         <v>53</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4926,15 +4924,15 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>71</v>
@@ -4952,13 +4950,13 @@
         <v>75</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4966,15 +4964,15 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="E81" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>71</v>
@@ -4992,13 +4990,13 @@
         <v>75</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -5006,12 +5004,12 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="4"/>
       <c r="E82" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>54</v>
@@ -5032,13 +5030,13 @@
         <v>75</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -5046,15 +5044,15 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="4"/>
       <c r="E83" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>71</v>
@@ -5072,13 +5070,13 @@
         <v>75</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -5086,15 +5084,15 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="4"/>
       <c r="E84" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>71</v>
@@ -5115,10 +5113,10 @@
         <v>55</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -5126,15 +5124,15 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
       <c r="E85" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>71</v>
@@ -5152,13 +5150,13 @@
         <v>75</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -5166,15 +5164,15 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
       <c r="E86" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>71</v>
@@ -5192,13 +5190,13 @@
         <v>75</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -5210,19 +5208,19 @@
     <row r="89" spans="1:14" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C90" s="10"/>
     </row>
     <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C91" s="10"/>
     </row>
     <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C92" s="10"/>
     </row>
@@ -5241,19 +5239,19 @@
     </row>
     <row r="98" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C98" s="10"/>
     </row>
     <row r="99" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C99" s="10"/>
     </row>
     <row r="100" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C100" s="10"/>
     </row>
